--- a/src/assets/annex_1.xlsx
+++ b/src/assets/annex_1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\w\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ie-2024.be\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CDC11F-855E-432B-A48B-5AC98CBFE31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C88378-8873-4FC7-B9B9-C0F3ADF6D780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="10440" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$I$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Project</t>
   </si>
@@ -71,28 +71,13 @@
     <t xml:space="preserve"> MR. LE XUAN NGHIA</t>
   </si>
   <si>
-    <t>Passport No</t>
-  </si>
-  <si>
-    <t>: P00634144</t>
-  </si>
-  <si>
     <t>THE CONTRACT ANNEX</t>
   </si>
   <si>
     <t>Based on the request of Party A incurred on approved items.</t>
   </si>
   <si>
-    <t>ID Code</t>
-  </si>
-  <si>
     <t>: ${p_a_name}</t>
-  </si>
-  <si>
-    <t>: ${p_a_represented}</t>
-  </si>
-  <si>
-    <t>: ${p_a_id_code}</t>
   </si>
   <si>
     <r>
@@ -146,27 +131,6 @@
     <t>:   ${item_name}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> LE XUAN NGHIA</t>
-    </r>
-  </si>
-  <si>
     <t>: No 5 Vsip II-A, Street 32, Viet Nam – Singapore II-A IZ, Tân Binh Town, Bac Tan Uyen   District, Binh Duong Province, Viet Nam</t>
   </si>
   <si>
@@ -186,9 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">This Annex is valid from the date of signing the Agreement until copy. This contract is made into 02 sets (original) in English, 02 sets of the same value for each party in witness hereof. This contract is valid from signature date. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: ${p_a_address}                                                             </t>
   </si>
   <si>
     <r>
@@ -295,6 +256,39 @@
   </si>
   <si>
     <t>${p_a_annex_sign_name}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DAI NGHIA INDUSTRIAL MECHANICS CO., LTD</t>
+    </r>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>: 3702682454</t>
+  </si>
+  <si>
+    <t>DAI NGHIA INDUSTRIAL MECHANICS CO., LTD</t>
+  </si>
+  <si>
+    <t>${p_a_name}</t>
   </si>
 </sst>
 </file>
@@ -481,92 +475,92 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -885,10 +879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -910,20 +904,20 @@
     <col min="18" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="106.5" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+    <row r="1" spans="1:18" ht="105.75" customHeight="1">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
+    <row r="2" spans="1:18" ht="6.75" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -937,47 +931,47 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="16.5">
-      <c r="A3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="A3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="22.5">
-      <c r="A5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -985,19 +979,19 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="16.5">
-      <c r="A6" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
+      <c r="A6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1007,18 +1001,18 @@
     <row r="7" spans="1:18" ht="18.75">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -1028,18 +1022,18 @@
     <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -1049,18 +1043,18 @@
     <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1068,247 +1062,241 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
-      <c r="A12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="A14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="18.75">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A21" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A23" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A24" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A22" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A23" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A24" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A25" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
@@ -1317,190 +1305,179 @@
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A26" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="18.75">
-      <c r="A27" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="34.5" customHeight="1">
+      <c r="A27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="34.5" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5">
-      <c r="A31" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="16.5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" ht="33" customHeight="1">
+    <row r="29" spans="1:14" ht="16.5">
+      <c r="A29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="16.5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A31" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" ht="33" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5">
+      <c r="A33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="36" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" ht="16.5">
-      <c r="A35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="6"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="36" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+    <row r="36" spans="1:11" ht="16.5">
+      <c r="A36" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="16.5">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="16.5">
@@ -1569,38 +1546,38 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" ht="16.5">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" ht="16.5">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" ht="16.5">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -1608,168 +1585,138 @@
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" ht="16.5">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+    </row>
+    <row r="47" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A47" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:11" ht="16.5">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A49" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" ht="16.5">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="1:10" ht="16.5">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="14"/>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A52:I53"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C45:F45"/>
+  <mergeCells count="51">
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A50:I51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E48:I48"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:K23"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A27:I27"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A26:I26"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D18:I18"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
   </mergeCells>
   <pageMargins left="0.49212598425196852" right="0.49212598425196852" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="13" man="1"/>
+    <brk id="48" max="13" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="51" man="1"/>
